--- a/Hospital_PowerBI_Project_Plan new (1).xlsx
+++ b/Hospital_PowerBI_Project_Plan new (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ishan_IMP\GitHub Desktop files\Capstone_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F99F091-D038-417A-B5F3-89FF67CD0ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08336794-8D33-4295-BF01-4FDDA8F76E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="23040" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase_Task_Breakdown" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- Create HospitalsAboveThreshold DAX
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create HospitalsAboveThreshold DAX
 </t>
     </r>
     <r>
@@ -524,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +560,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -603,6 +620,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -911,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1034,7 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="3">

--- a/Hospital_PowerBI_Project_Plan new (1).xlsx
+++ b/Hospital_PowerBI_Project_Plan new (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ishan_IMP\GitHub Desktop files\Capstone_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08336794-8D33-4295-BF01-4FDDA8F76E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2308FE91-3FA3-47ED-869C-FBEDC0D0770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="23040" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1062,7 @@
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="3">

--- a/Hospital_PowerBI_Project_Plan new (1).xlsx
+++ b/Hospital_PowerBI_Project_Plan new (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ishan_IMP\GitHub Desktop files\Capstone_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2308FE91-3FA3-47ED-869C-FBEDC0D0770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2890B63E-9B49-45C9-AFFC-E8BEE7FA8E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="23040" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,11 +234,6 @@
  Add slicers and filters.</t>
   </si>
   <si>
-    <t>Implement drill-through actions
- Create custom tooltips for map bubbles
- Configure bookmarks for default and optimistic scenarios.</t>
-  </si>
-  <si>
     <t>Cross-verify sample hospitals
  Confirm scenario outputs match manual calculations
  Test parameters
@@ -527,6 +522,40 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Create ProjectedSafetyBetter and ProjectedReadmitBetter measures.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implement drill-through actions
+ Create custom tooltips for map bubbles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Configure bookmarks for default and optimistic scenarios.</t>
     </r>
   </si>
 </sst>
@@ -931,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -965,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="3">
         <v>10</v>
@@ -979,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
@@ -993,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -1007,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3">
         <v>15</v>
@@ -1049,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="3">
         <v>20</v>
@@ -1077,7 +1106,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3">
         <v>10</v>
@@ -1091,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
@@ -1105,7 +1134,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -1119,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
@@ -1133,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -1145,7 +1174,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3">
         <v>10</v>
@@ -1187,7 +1216,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
@@ -1198,7 +1227,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3">
         <v>30</v>
@@ -1209,7 +1238,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3">
         <v>30</v>
@@ -1220,7 +1249,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3">
         <v>30</v>
@@ -1231,7 +1260,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3">
         <v>30</v>
@@ -1267,7 +1296,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1275,7 +1304,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1283,7 +1312,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
